--- a/starter/src/main/resources/excel/faq.xlsx
+++ b/starter/src/main/resources/excel/faq.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="9340"/>
+    <workbookView windowWidth="26860" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="自动回复" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>分类(必填)</t>
+  </si>
+  <si>
+    <t>类型(五种类型：TEXT、IMAGE、VIDEO、AUDIO、FILE)</t>
+  </si>
   <si>
     <t>关键词</t>
   </si>
@@ -35,10 +41,19 @@
     <t>回复内容</t>
   </si>
   <si>
+    <t>分类1</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
     <t>常见问题1</t>
   </si>
   <si>
     <t>常见答案1</t>
+  </si>
+  <si>
+    <t>分类2</t>
   </si>
   <si>
     <t>常见问题2</t>
@@ -1043,40 +1058,60 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="73.875" customWidth="1"/>
-    <col min="2" max="2" width="60.5769230769231" customWidth="1"/>
+    <col min="1" max="1" width="24.0288461538462" customWidth="1"/>
+    <col min="2" max="2" width="58.8076923076923" customWidth="1"/>
+    <col min="3" max="3" width="34.7788461538462" customWidth="1"/>
+    <col min="4" max="4" width="52.4038461538462" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
